--- a/Introdu-o-e-desenvolvimento-da-linguagem-de-programa-o-Java---grupo-1.xlsx
+++ b/Introdu-o-e-desenvolvimento-da-linguagem-de-programa-o-Java---grupo-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DBEC67-59AA-4AE6-9CA6-C884C9B4B6F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A4B5A8-D3DF-4B07-9CAC-23CC29EEADC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>FLUXOGRAMA DE ÁRVORE DE DECISÕES</t>
   </si>
@@ -42,16 +42,10 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>DIRIJA UM CARRO DE PASSEIO</t>
-  </si>
-  <si>
     <t>COMO COMPRAR SAPATOS</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>MANTENHA SEU CÉREBRO EM BOA FORMA</t>
   </si>
   <si>
     <t>COMO AMARRAR SAPATOS</t>
@@ -60,14 +54,26 @@
     <t>Contras:</t>
   </si>
   <si>
-    <t>Baixar algo que pode ficar disponível e o abusador ver</t>
+    <t>Ideia: API com vínculo para aplicativos parceiros (como Uber, Ifood, Instagram e etc) para denuncia de atos de abuso contra a mulher</t>
+  </si>
+  <si>
+    <t>A mulher não poderia baixar algo que o abusador possa ver;</t>
+  </si>
+  <si>
+    <t>Inserir tabela de cores para indicar urgência</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Projeto Bloco I: API com vínculo para aplicativos parceiros (como Uber, Ifood, Instagram e etc) para denuncia de atos de abuso contra a mulher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
@@ -146,8 +152,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +184,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +278,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +303,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -273,16 +327,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -291,8 +339,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -319,13 +380,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>241301</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>250825</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -412,13 +473,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>107951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -488,13 +549,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>63499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -512,6 +573,79 @@
         <a:xfrm>
           <a:off x="7620000" y="5219700"/>
           <a:ext cx="1727200" cy="1447799"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Atividades para Reduzir o Stress" descr="Forma de processo (retângulo)" title="Atividades para Diminuir o Stress">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508001" y="5683250"/>
+          <a:ext cx="1533524" cy="501650"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -553,106 +687,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>"Contato</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> mascarado" para que a mulher pudesse ligar pedindo ajuda e já caisse com orgãos responsáveis</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Atividades para Reduzir o Stress" descr="Forma de processo (retângulo)" title="Atividades para Diminuir o Stress">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="508001" y="5683250"/>
-          <a:ext cx="1533524" cy="501650"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ATIVIDADES PARA DIMINUIR O STRESS</a:t>
+            <a:t>.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -663,13 +698,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -756,13 +791,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -829,13 +864,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -853,82 +888,6 @@
         <a:xfrm>
           <a:off x="4068763" y="5683250"/>
           <a:ext cx="1533525" cy="501650"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DESCANSO E RELAXAMENTO</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>82549</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Ler Mais, Criatividade" descr="Forma de processo (retângulo)" title="Mais Leitura, Criatividade">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="508001" y="3556000"/>
-          <a:ext cx="1533524" cy="1174749"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -972,16 +931,6 @@
             </a:rPr>
             <a:t>.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -989,16 +938,116 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>125075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Ler Mais, Criatividade" descr="Forma de processo (retângulo)" title="Mais Leitura, Criatividade">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="500305" y="3357803"/>
+          <a:ext cx="1500908" cy="1144924"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"Contato</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> mascarado" para que a mulher </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pudesse ligar pedindo ajuda e já caisse com orgãos responsáveis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76969</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>148119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>86495</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>73506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1013,8 +1062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="3859213"/>
-          <a:ext cx="1533525" cy="814387"/>
+          <a:off x="7331363" y="3659861"/>
+          <a:ext cx="1510435" cy="791297"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1088,16 +1137,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1588</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25402</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>96215</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163561</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1109,19 +1158,16 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="0"/>
           <a:endCxn id="7" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="6365876" y="1357314"/>
-          <a:ext cx="482599" cy="3559175"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm flipV="1">
+          <a:off x="5349397" y="2671234"/>
+          <a:ext cx="2910366" cy="1004069"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -1149,40 +1195,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1588</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>246064</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>125076</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Conector em Curva 21" descr="&quot;&quot;" title="Conector de Seta Curva">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+        <xdr:cNvPr id="30" name="Conector em Curva 29" descr="&quot;&quot;" title="Conector de Seta Curva">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6468269" y="3204369"/>
-          <a:ext cx="374650" cy="3656012"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm rot="10800000">
+          <a:off x="1246670" y="2869816"/>
+          <a:ext cx="2880830" cy="574579"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -1212,33 +1255,33 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Conector em Curva 23" descr="&quot;&quot;" title="Conector de Seta Curva">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
+        <xdr:cNvPr id="55" name="Conector em Curva 54" descr="&quot;&quot;" title="Conector de Seta Curva">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="14" idx="0"/>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4424363" y="5367337"/>
-          <a:ext cx="933450" cy="9525"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4646613" y="3160713"/>
+          <a:ext cx="488950" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -1269,37 +1312,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>250056</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>20686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>240530</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>170850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Conector em Curva 25" descr="&quot;&quot;" title="Conector de Seta Curva">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector de Seta Reta 36" descr="&quot;&quot;" title="Conector de Seta">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2621757" y="3574256"/>
-          <a:ext cx="933450" cy="3595688"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
+        <a:xfrm>
+          <a:off x="5503238" y="3878792"/>
+          <a:ext cx="1491383" cy="150164"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
@@ -1328,40 +1368,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>246063</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1588</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>96212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>202046</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>72159</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Conector em Curva 29" descr="&quot;&quot;" title="Conector de Seta Curva">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+        <xdr:cNvPr id="40" name="Conector de Seta Reta 39" descr="&quot;&quot;" title="Conector de Seta">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="0"/>
-          <a:endCxn id="6" idx="2"/>
+          <a:endCxn id="15" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="2905126" y="1455737"/>
-          <a:ext cx="279400" cy="3565525"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm flipH="1">
+          <a:off x="2001213" y="3781136"/>
+          <a:ext cx="2203257" cy="149129"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -1389,258 +1426,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Conector em Curva 54" descr="&quot;&quot;" title="Conector de Seta Curva">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="0"/>
-          <a:endCxn id="13" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="4646613" y="3160713"/>
-          <a:ext cx="488950" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>151607</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Conector de Seta Reta 36" descr="&quot;&quot;" title="Conector de Seta">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="16" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6105526" y="4111625"/>
-          <a:ext cx="1514474" cy="154782"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Conector de Seta Reta 39" descr="&quot;&quot;" title="Conector de Seta">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="1"/>
-          <a:endCxn id="15" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2041525" y="4111625"/>
-          <a:ext cx="1508125" cy="31750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Conteúdo" descr="Clique para retornar à planilha de Conteúdo." title="Conteúdo - botão de navegação">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique para ver o Conteúdo"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="295276" y="876300"/>
-          <a:ext cx="933449" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-            </a:rPr>
-            <a:t>&lt; CONTEÚDO</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1649,13 +1434,13 @@
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Voltar" descr="Clique para ver o tipo de fluxograma anterior." title="Voltar - botão de navegação">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Clique para ver o exemplo de fluxograma anterior."/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique para ver o exemplo de fluxograma anterior."/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
@@ -1724,13 +1509,13 @@
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="Avançar" descr="Clique para ver o próximo tipo de fluxograma." title="Próximo - botão de navegação">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tooltip="Clique para ver o próximo exemplo de fluxograma."/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Clique para ver o próximo exemplo de fluxograma."/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
@@ -1782,7 +1567,7 @@
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
             </a:rPr>
-            <a:t>PRÓXIMO &gt;</a:t>
+            <a:t>&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1791,72 +1576,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Borda do Título" descr="&quot;&quot;" title="Borda do Título">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1238250" y="981075"/>
-          <a:ext cx="7096125" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>146051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1929,23 +1657,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>150448</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>39031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228043</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>59605</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171411</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>82044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9513</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Está frio" descr="Forma de decisão (losango)" title="Está frio?">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+        <xdr:cNvPr id="28" name="Ligar ar condicionado" descr="Forma de processo (retângulo)" title="Ligue o ar condicionado">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,14 +1683,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2465023" y="7278031"/>
-          <a:ext cx="1106295" cy="1106424"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
+          <a:off x="1943957" y="5103608"/>
+          <a:ext cx="2269552" cy="465077"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2"/>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525">
           <a:noFill/>
@@ -1998,7 +1728,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>está frio?</a:t>
+            <a:t>[verde] "Você quer falar com um atendente agora?"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (opções)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2007,23 +1759,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>112348</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>88724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>13960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3157</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>37853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45104</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>140474</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Está quente" descr="Forma de decisão (losango)" title="está quente?">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+        <xdr:cNvPr id="29" name="Ligar aquecedor" descr="Forma de processo (retângulo)" title="Ligue o aquecedor">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,83 +1785,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2426923" y="4975049"/>
-          <a:ext cx="1187487" cy="1187625"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>está quente?</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>88863</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>70357</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>130810</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177029</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Ligar ar condicionado" descr="Forma de processo (retângulo)" title="Ligue o ar condicionado">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5746713" y="5318632"/>
-          <a:ext cx="2099347" cy="468622"/>
+          <a:off x="2028924" y="7030644"/>
+          <a:ext cx="2067714" cy="461026"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2153,8 +1830,27 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ligue o ar condicionado</a:t>
+            <a:t>"Deseja</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> registrar o seu contato?"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2162,23 +1858,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>88863</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>174202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>130810</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>97621</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>96228</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>210367</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>40297</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Ligar aquecedor" descr="Forma de processo (retângulo)" title="Ligue o aquecedor">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+        <xdr:cNvPr id="87" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,8 +1884,172 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5746713" y="7594177"/>
-          <a:ext cx="2099347" cy="466344"/>
+          <a:off x="4907424" y="5055469"/>
+          <a:ext cx="620581" cy="544000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184142</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>226089</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Abrir a porta do veículo" descr="Forma de processo (retângulo)" title="Abrir a porta do carro">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1984367" y="1990725"/>
+          <a:ext cx="2099347" cy="468622"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Pessoa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> clica no ícone </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184142</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>226089</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Sentar no banco do motorista" descr="Forma de processo (retângulo)" title="Sentar no banco do motorista">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1984367" y="2714613"/>
+          <a:ext cx="2099347" cy="468622"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2233,8 +2093,27 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ligue o aquecedor</a:t>
+            <a:t>[Título]"Faça</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> seu pedido"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2242,23 +2121,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>88863</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>117649</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>130810</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>41068</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184142</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>226089</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106649</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Acender faróis" descr="Forma de processo (retângulo)" title="Ligue os faróis dianteiros">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+        <xdr:cNvPr id="54" name="Colocar cinto de segurança" descr="Forma de processo (retângulo)" title="Colocar o cinto de segurança">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,8 +2147,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5746713" y="9890299"/>
-          <a:ext cx="2099347" cy="466344"/>
+          <a:off x="1984367" y="3438501"/>
+          <a:ext cx="2099347" cy="468623"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2313,8 +2192,27 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ligue os faróis dianteiros</a:t>
+            <a:t>[vermelho]</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> "Seu pedido está a caminho" (viatura)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2322,23 +2220,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>93298</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>115828</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>24953</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184142</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>226089</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38957</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="está escuro" descr="Forma de decisão (losango)" title="Está escuro?">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+        <xdr:cNvPr id="55" name="Inserir e girar chave de ignição" descr="Forma de processo (retângulo)" title="Inserir e girar a chave de ignição">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,14 +2246,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2407873" y="9526528"/>
-          <a:ext cx="1217530" cy="1217672"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
+          <a:off x="1956688" y="3948086"/>
+          <a:ext cx="2067714" cy="754031"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2"/>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525">
           <a:noFill/>
@@ -2391,79 +2291,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>está escuro?</a:t>
+            <a:t>[amarelo]</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161290</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>85187</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>8606</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Dirigir até o Destino" descr="Forma de processo (retângulo)" title="Dirigir até o Destino">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1961515" y="11848562"/>
-          <a:ext cx="2103120" cy="466344"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -2471,8 +2302,16 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>dirigir até o destino</a:t>
+            <a:t> "Você será direcionado para um atendente" (envia para o centro de ajuda online</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2480,409 +2319,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>65063</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>30010</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>96878</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>36402</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4437038" y="5278285"/>
-          <a:ext cx="546165" cy="549317"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>sim</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184142</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>226089</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106672</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Abrir a porta do veículo" descr="Forma de processo (retângulo)" title="Abrir a porta do carro">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1984367" y="1990725"/>
-          <a:ext cx="2099347" cy="468622"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>abrir a porta do carro</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184142</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180963</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>226089</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106660</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Sentar no banco do motorista" descr="Forma de processo (retângulo)" title="Sentar no banco do motorista">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1984367" y="2714613"/>
-          <a:ext cx="2099347" cy="468622"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>sentar no banco do motorista</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184142</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180951</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>226089</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>106649</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Colocar cinto de segurança" descr="Forma de processo (retângulo)" title="Colocar o cinto de segurança">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1984367" y="3438501"/>
-          <a:ext cx="2099347" cy="468623"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>colocar o cinto de segurança</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184142</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180940</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>226089</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>106638</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Inserir e girar chave de ignição" descr="Forma de processo (retângulo)" title="Inserir e girar a chave de ignição">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1984367" y="4162390"/>
-          <a:ext cx="2099347" cy="468623"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>inserir e girar a chave de ignição</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>226089</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>53336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>238789</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>53324</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2935,13 +2380,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>184142</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>53325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>196842</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>53314</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2994,14 +2439,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>226089</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>53313</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>238789</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>53302</xdr:rowOff>
+      <xdr:rowOff>20347</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3019,8 +2464,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4083714" y="3672813"/>
-          <a:ext cx="12700" cy="723889"/>
+          <a:off x="4024402" y="3462941"/>
+          <a:ext cx="12700" cy="862161"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -3053,14 +2498,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>166356</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>81363</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>200646</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>87754</xdr:rowOff>
+      <xdr:colOff>210368</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87755</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3077,8 +2522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2738106" y="6415488"/>
-          <a:ext cx="548640" cy="549316"/>
+          <a:off x="2698565" y="6168362"/>
+          <a:ext cx="550453" cy="553780"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3140,16 +2585,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>13960</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123694</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>65063</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139612</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>126702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>96228</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135380</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3161,14 +2606,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="87" idx="2"/>
-          <a:endCxn id="27" idx="3"/>
+          <a:endCxn id="28" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3614410" y="5552944"/>
-          <a:ext cx="822628" cy="15918"/>
+          <a:off x="4213509" y="5327469"/>
+          <a:ext cx="693915" cy="8678"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3197,15 +2643,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>183501</xdr:colOff>
+      <xdr:colOff>188363</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190890</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>191742</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>81363</xdr:rowOff>
+      <xdr:rowOff>71583</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3217,14 +2663,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="51" idx="0"/>
-          <a:endCxn id="27" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3012426" y="6162674"/>
-          <a:ext cx="8241" cy="252814"/>
+          <a:off x="2973792" y="5559172"/>
+          <a:ext cx="2527" cy="609190"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3252,71 +2698,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>96878</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123693</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>88863</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123694</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="Conector Reto 74" descr="&quot;&quot;" title="Conector de linha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="1"/>
-          <a:endCxn id="87" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4983203" y="5552943"/>
-          <a:ext cx="763510" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>183501</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>87754</xdr:rowOff>
+      <xdr:colOff>188363</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>189246</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>39031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3329,14 +2719,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="25" idx="0"/>
+          <a:cxnSpLocks/>
           <a:endCxn id="51" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3012426" y="6964804"/>
-          <a:ext cx="5745" cy="313227"/>
+          <a:off x="2973792" y="6722142"/>
+          <a:ext cx="883" cy="309680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3365,22 +2755,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>166356</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>3093</xdr:rowOff>
+      <xdr:colOff>162456</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>200646</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>9485</xdr:rowOff>
+      <xdr:colOff>225951</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>65941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="Não" descr="Rótulo de decisão (círculo)" title="Não">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+        <xdr:cNvPr id="90" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3390,88 +2780,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2738106" y="8689893"/>
-          <a:ext cx="548640" cy="549317"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>não</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>65063</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>132716</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>96878</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>139108</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4437038" y="7552691"/>
-          <a:ext cx="546165" cy="549317"/>
+          <a:off x="2694665" y="7737133"/>
+          <a:ext cx="569936" cy="576017"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3521,173 +2831,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>65063</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>76163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>96878</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>82555</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4437038" y="9848813"/>
-          <a:ext cx="546165" cy="549317"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>sim</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>166356</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>127517</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200646</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>133909</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Não" descr="Rótulo de decisão (círculo)" title="Não">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2738106" y="10986017"/>
-          <a:ext cx="548640" cy="549317"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>não</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>183501</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>59605</xdr:rowOff>
+      <xdr:colOff>206876</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>110250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>189246</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>3093</xdr:rowOff>
+      <xdr:colOff>212621</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>53738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3699,14 +2852,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="85" idx="0"/>
-          <a:endCxn id="25" idx="2"/>
+          <a:cxnSpLocks/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3012426" y="8384455"/>
-          <a:ext cx="5745" cy="305438"/>
+          <a:off x="2992305" y="7461446"/>
+          <a:ext cx="5745" cy="301893"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3731,472 +2883,6 @@
       </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>183501</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>9485</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>187713</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>115828</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="Conector Reto 93" descr="&quot;&quot;" title="Conector de linha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="0"/>
-          <a:endCxn id="85" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3012426" y="9239210"/>
-          <a:ext cx="4212" cy="287318"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>183501</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>187713</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>127517</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="Conector Reto 94" descr="&quot;&quot;" title="Conector de linha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="0"/>
-          <a:endCxn id="31" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3012426" y="10744200"/>
-          <a:ext cx="4212" cy="241817"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>183501</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>133909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>85187</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="Conector Reto 95" descr="&quot;&quot;" title="Conector de linha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="0"/>
-          <a:endCxn id="92" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3012426" y="11535334"/>
-          <a:ext cx="649" cy="313228"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>24953</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>169847</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>65063</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>764</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="Conector Reto 97" descr="&quot;&quot;" title="Conector de linha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="91" idx="2"/>
-          <a:endCxn id="31" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3625403" y="10123472"/>
-          <a:ext cx="811635" cy="11892"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>96878</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>169846</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>88863</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>169847</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="Conector Reto 98" descr="&quot;&quot;" title="Conector de linha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="30" idx="1"/>
-          <a:endCxn id="91" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4983203" y="10123471"/>
-          <a:ext cx="763510" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>96878</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>45424</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>88863</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>45425</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="Conector Reto 99" descr="&quot;&quot;" title="Conector de linha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeAspect="1"/>
-          <a:stCxn id="29" idx="1"/>
-          <a:endCxn id="90" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4983203" y="7827349"/>
-          <a:ext cx="763510" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228043</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>45425</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>65063</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>49318</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="Conector Reto 100" descr="&quot;&quot;" title="Conector de linha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="90" idx="2"/>
-          <a:endCxn id="25" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3571318" y="7827350"/>
-          <a:ext cx="865720" cy="3893"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Conteúdo" descr="Clique para retornar à planilha Conteúdo." title="Conteúdo - botão de navegação">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique para ver o Conteúdo"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="295276" y="876300"/>
-          <a:ext cx="933449" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-            </a:rPr>
-            <a:t>&lt; CONTEÚDO</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4208,13 +2894,13 @@
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="Voltar" descr="Clique para ver o tipo de fluxograma anterior." title="Voltar - botão de navegação">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Voltar"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Voltar"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
@@ -4281,13 +2967,13 @@
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="Avançar" descr="Clique para ver o próximo tipo de fluxograma." title="Avançar - botão de navegação">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tooltip="Próxima"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Próxima"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
@@ -4346,45 +3032,570 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171410</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>20348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184141</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135381</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Borda do Título" descr="&quot;&quot;" title="Borda do título">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="62" name="Conector em Curva 61" descr="&quot;&quot;" title="Conector de linha curva">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="28" idx="1"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="1943956" y="4325103"/>
+          <a:ext cx="12731" cy="1011045"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1795617"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>229846</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>62332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>220411</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>169004</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Ligar ar condicionado" descr="Forma de processo (retângulo)" title="Ligue o ar condicionado">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4D3E21-4105-4039-A2C2-DEB508837FBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1238250" y="981075"/>
-          <a:ext cx="7096125" cy="0"/>
+          <a:off x="6053926" y="5083896"/>
+          <a:ext cx="2269552" cy="465077"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(direciona contato para alguém ligar para ela)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>210367</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>111587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>240837</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>126702</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Conector Reto 14" descr="&quot;&quot;" title="Conector de linha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BA7E20-EABF-423A-9D4E-1E5F561C0BDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="87" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5528005" y="5312354"/>
+          <a:ext cx="536912" cy="15115"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>164089</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>39720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>154653</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>146392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Ligar ar condicionado" descr="Forma de processo (retângulo)" title="Ligue o ar condicionado">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66610285-76DA-447F-A186-878814BEE8F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6006089" y="6881845"/>
+          <a:ext cx="2276564" cy="455922"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(visualização de orientações em tela</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>125599</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>39893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>116163</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>146565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Ligar ar condicionado" descr="Forma de processo (retângulo)" title="Ligue o ar condicionado">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3006F504-FC00-4C55-8B33-807FE2D8E176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1898145" y="8645506"/>
+          <a:ext cx="2269552" cy="465077"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"Digite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> aqui seu contato" (envio de orientações por e-mail/telefone)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>42852</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>93497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>229847</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>93497</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Conector Reto 92" descr="&quot;&quot;" title="Conector de linha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD92357-53C3-4F94-998B-28D5BD15190B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4094386" y="7265491"/>
+          <a:ext cx="440216" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>240838</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>168244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>51112</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>27451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3BE4949-F8E3-4D2D-BAC3-0601BE1717FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4545593" y="6981833"/>
+          <a:ext cx="569936" cy="576017"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
           <a:solidFill>
-            <a:schemeClr val="bg1">
+            <a:schemeClr val="bg2">
               <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>não</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47217</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>70590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>164089</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>93056</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Conector Reto 92" descr="&quot;&quot;" title="Conector de linha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2951A280-827C-4559-B487-9F310E676809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5127217" y="7087340"/>
+          <a:ext cx="878872" cy="22466"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
         <a:lnRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:lnRef>
@@ -4403,44 +3614,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184142</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53302</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>112348</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139612</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>183970</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>71760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>189715</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>15249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="Conector em Curva 61" descr="&quot;&quot;" title="Conector de linha curva">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+        <xdr:cNvPr id="69" name="Conector Reto 92" descr="&quot;&quot;" title="Conector de linha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1804AFD2-0372-4D39-B88D-0A30D640DED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="1"/>
-          <a:endCxn id="55" idx="1"/>
+          <a:cxnSpLocks/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1984367" y="4396702"/>
-          <a:ext cx="442556" cy="1172160"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 151654"/>
-          </a:avLst>
+        <a:xfrm flipV="1">
+          <a:off x="2969399" y="8318969"/>
+          <a:ext cx="5745" cy="301893"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
           <a:prstDash val="sysDot"/>
-          <a:tailEnd type="none"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9014,226 +8221,209 @@
     <tabColor theme="6"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AW29"/>
+  <dimension ref="B1:AW28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM26" sqref="AM26"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="37" max="37" width="5" customWidth="1"/>
+    <col min="40" max="40" width="6.75" customWidth="1"/>
+    <col min="47" max="47" width="4.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:49" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:49" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="2"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
     </row>
-    <row r="3" spans="2:49" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
+    <row r="3" spans="2:49" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="4"/>
     </row>
-    <row r="4" spans="2:49" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:49" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="AK12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="4"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="15"/>
     </row>
-    <row r="5" spans="2:49" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="AK13" s="10" t="s">
+      <c r="AK13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="12"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
     </row>
     <row r="14" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="AK14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="7"/>
-      <c r="AW14" s="7"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="10"/>
     </row>
     <row r="15" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="15"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="10"/>
     </row>
     <row r="16" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="15"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="10"/>
     </row>
     <row r="17" spans="37:47" x14ac:dyDescent="0.3">
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="15"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="10"/>
     </row>
-    <row r="18" spans="37:47" x14ac:dyDescent="0.3">
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="14"/>
-      <c r="AR18" s="14"/>
-      <c r="AS18" s="14"/>
-      <c r="AT18" s="14"/>
-      <c r="AU18" s="15"/>
-    </row>
-    <row r="29" spans="37:47" x14ac:dyDescent="0.3">
-      <c r="AK29" t="s">
-        <v>9</v>
+    <row r="28" spans="37:47" x14ac:dyDescent="0.3">
+      <c r="AK28" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
+    <mergeCell ref="AK16:AU16"/>
     <mergeCell ref="AK17:AU17"/>
-    <mergeCell ref="AK18:AU18"/>
-    <mergeCell ref="B2:AK2"/>
-    <mergeCell ref="B4:AK4"/>
-    <mergeCell ref="AK13:AU13"/>
+    <mergeCell ref="AK12:AU12"/>
+    <mergeCell ref="AK14:AU14"/>
     <mergeCell ref="AK15:AU15"/>
-    <mergeCell ref="AK16:AU16"/>
+    <mergeCell ref="B2:AU2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9248,9 +8438,11 @@
     <tabColor theme="2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AL66"/>
+  <dimension ref="B1:AL65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AT38" sqref="AT38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9296,6 +8488,134 @@
       <c r="AK2" s="16"/>
       <c r="AL2" s="2"/>
     </row>
+    <row r="3" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="4"/>
+    </row>
+    <row r="4" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="R11" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="R12" s="22"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
+    </row>
+    <row r="26" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:AK2"/>
+    <mergeCell ref="B3:AK3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9">
+    <tabColor theme="9"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AL42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="2"/>
+    </row>
     <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -9327,50 +8647,50 @@
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
-        <v>7</v>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="32:32" x14ac:dyDescent="0.3">
-      <c r="AF66" t="s">
-        <v>6</v>
+    <row r="42" spans="34:34" x14ac:dyDescent="0.3">
+      <c r="AH42" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -9380,18 +8700,18 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet9">
-    <tabColor theme="9"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
+    <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AL42"/>
+  <dimension ref="B1:AL66"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -9399,8 +8719,153 @@
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="2"/>
+    </row>
+    <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+    </row>
+    <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="4"/>
+    </row>
+    <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:AK2"/>
+    <mergeCell ref="B4:AK4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8">
+    <tabColor theme="8"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AL53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM37" sqref="AM37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -9470,338 +8935,50 @@
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="4"/>
-    </row>
-    <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="34:34" x14ac:dyDescent="0.3">
-      <c r="AH42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:AK2"/>
-    <mergeCell ref="B4:AK4"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4">
-    <tabColor theme="4"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:AL66"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="2"/>
-    </row>
-    <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="4"/>
-    </row>
-    <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="32:32" x14ac:dyDescent="0.3">
-      <c r="AF66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:AK2"/>
-    <mergeCell ref="B4:AK4"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet8">
-    <tabColor theme="8"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:AL53"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM37" sqref="AM37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="2"/>
-    </row>
-    <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -9826,131 +9003,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetExpire xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPFriendlyName xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <IntlLangReview xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">848672</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <SubmitterId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AcquiredFrom xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Complete</EditorialStatus>
-    <Markets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
-    <OriginAsset xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetStart xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2012-07-27T02:51:00+00:00</AssetStart>
-    <FriendlyTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <MarketSpecific xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MarketSpecific>
-    <TPNamespace xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Value>455394</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <UserInfo>
-        <DisplayName>REDMOND\v-sa</DisplayName>
-        <AccountId>2467</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OpenTemplate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
-    <Manager xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <NumericId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ParentAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</OriginalSourceMarket>
-    <ApprovalStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">InProgress</ApprovalStatus>
-    <TPComponent xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <EditorialTags xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPExecutable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <SourceTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CSXUpdate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CSXUpdate>
-    <IntlLocPriority xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">TP</AssetType>
-    <MachineTranslated xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MachineTranslated>
-    <OutputCachingOn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</OutputCachingOn>
-    <TemplateStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Complete</TemplateStatus>
-    <IsSearchable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">true</IsSearchable>
-    <ContentItem xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ShowIn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UALocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UALocRecommendation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LegacyData xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</LocManualTestRequired>
-    <LocMarketGroupTiers2 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ClipArtFilename xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPApplication xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CSXHash xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</DirectSourceMarket>
-    <PrimaryImageGen xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Downloads xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">0</Downloads>
-    <ArtSampleDocs xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TrustLevel xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Providers xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Excel 2007 Default</TemplateTemplateType>
-    <TimesCloned xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPAppVersion xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <VoteCount xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UACurrentWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">TP103107647</AssetId>
-    <TPClientViewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <DSATActionTaken xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <APEditor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OOCacheId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <IsDeleted xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IsDeleted>
-    <PublishTargets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <BugNumber xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Milestone xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OriginalRelease xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">15</OriginalRelease>
-    <RecommendationsModifier xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x01010062057737089D604C8995D725789FFFFD0400C05BDBFCDB0BE84BA6AEC1D1A4F5E4CE" ma:contentTypeVersion="56" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5c786f17e9890b7d2875e0bb647f603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dddc4782ba87b44f6678511fd2b89e9" ns2:_="">
     <xsd:import namespace="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
@@ -10984,6 +10036,131 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetExpire xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPFriendlyName xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <IntlLangReview xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">848672</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <SubmitterId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AcquiredFrom xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Complete</EditorialStatus>
+    <Markets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
+    <OriginAsset xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetStart xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2012-07-27T02:51:00+00:00</AssetStart>
+    <FriendlyTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <MarketSpecific xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MarketSpecific>
+    <TPNamespace xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Value>455394</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <UserInfo>
+        <DisplayName>REDMOND\v-sa</DisplayName>
+        <AccountId>2467</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OpenTemplate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
+    <Manager xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <NumericId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ParentAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</OriginalSourceMarket>
+    <ApprovalStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">InProgress</ApprovalStatus>
+    <TPComponent xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <EditorialTags xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPExecutable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <SourceTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CSXUpdate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CSXUpdate>
+    <IntlLocPriority xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">TP</AssetType>
+    <MachineTranslated xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MachineTranslated>
+    <OutputCachingOn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</OutputCachingOn>
+    <TemplateStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Complete</TemplateStatus>
+    <IsSearchable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">true</IsSearchable>
+    <ContentItem xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ShowIn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UALocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UALocRecommendation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LegacyData xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</LocManualTestRequired>
+    <LocMarketGroupTiers2 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ClipArtFilename xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPApplication xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CSXHash xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</DirectSourceMarket>
+    <PrimaryImageGen xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Downloads xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">0</Downloads>
+    <ArtSampleDocs xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TrustLevel xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Providers xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Excel 2007 Default</TemplateTemplateType>
+    <TimesCloned xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPAppVersion xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <VoteCount xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UACurrentWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">TP103107647</AssetId>
+    <TPClientViewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <DSATActionTaken xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <APEditor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OOCacheId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <IsDeleted xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IsDeleted>
+    <PublishTargets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <BugNumber xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Milestone xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OriginalRelease xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">15</OriginalRelease>
+    <RecommendationsModifier xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA305B4-5B15-43B0-97AD-ED100099AAA1}">
   <ds:schemaRefs>
@@ -10993,16 +10170,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0F3B5-19EE-4272-80BE-E3F25FA5FD34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F89B36D-0441-4E4A-AAB0-33B035B10CD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11018,4 +10185,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0F3B5-19EE-4272-80BE-E3F25FA5FD34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Introdu-o-e-desenvolvimento-da-linguagem-de-programa-o-Java---grupo-1.xlsx
+++ b/Introdu-o-e-desenvolvimento-da-linguagem-de-programa-o-Java---grupo-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A4B5A8-D3DF-4B07-9CAC-23CC29EEADC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA991367-3A76-41F8-91F2-F792B8EDC308}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="15040" windowHeight="10340" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa Mental" sheetId="8" r:id="rId1"/>
@@ -303,6 +303,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,12 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,6 +340,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,22 +354,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -435,16 +435,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Funcionaria</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent3">
@@ -452,18 +442,8 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t> como um software link dentro de outros apps para que a mulhres pudesse denunciar</a:t>
+            <a:t>como um software link dentro de outros apps para que a mulhres pudesse denunciar</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2229,7 +2209,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>226089</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38957</xdr:rowOff>
+      <xdr:rowOff>162278</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2246,8 +2226,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1956688" y="3948086"/>
-          <a:ext cx="2067714" cy="754031"/>
+          <a:off x="1962142" y="3903458"/>
+          <a:ext cx="2073947" cy="866098"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2302,7 +2282,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> "Você será direcionado para um atendente" (envia para o centro de ajuda online</a:t>
+            <a:t> "Você será direcionado para um atendente" (envia para o centro de ajuda online)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -2440,13 +2420,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>226089</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>54199</xdr:rowOff>
+      <xdr:rowOff>55605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>238789</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>20347</xdr:rowOff>
+      <xdr:rowOff>82007</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2464,8 +2444,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4024402" y="3462941"/>
-          <a:ext cx="12700" cy="862161"/>
+          <a:off x="4036089" y="3428161"/>
+          <a:ext cx="12700" cy="908346"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -3035,13 +3015,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>171410</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>20348</xdr:rowOff>
+      <xdr:rowOff>82008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>184141</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>135381</xdr:rowOff>
+      <xdr:rowOff>133975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3060,8 +3040,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="1943956" y="4325103"/>
-          <a:ext cx="12731" cy="1011045"/>
+          <a:off x="1949410" y="4336508"/>
+          <a:ext cx="12731" cy="933911"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -8223,7 +8203,7 @@
   </sheetPr>
   <dimension ref="B1:AW28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -8236,111 +8216,111 @@
   <sheetData>
     <row r="1" spans="2:49" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:49" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
     </row>
     <row r="3" spans="2:49" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
       <c r="AL3" s="4"/>
     </row>
     <row r="4" spans="2:49" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="AK12" s="13" t="s">
+      <c r="AK12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="15"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="19"/>
     </row>
     <row r="13" spans="2:49" x14ac:dyDescent="0.3">
       <c r="AK13" s="5" t="s">
@@ -8360,56 +8340,56 @@
       <c r="AW13" s="7"/>
     </row>
     <row r="14" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="10"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="16"/>
     </row>
     <row r="15" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="9"/>
-      <c r="AT15" s="9"/>
-      <c r="AU15" s="10"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="16"/>
     </row>
     <row r="16" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="9"/>
-      <c r="AT16" s="9"/>
-      <c r="AU16" s="10"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="16"/>
     </row>
     <row r="17" spans="37:47" x14ac:dyDescent="0.3">
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="9"/>
-      <c r="AT17" s="9"/>
-      <c r="AU17" s="10"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="16"/>
     </row>
     <row r="28" spans="37:47" x14ac:dyDescent="0.3">
       <c r="AK28" t="s">
@@ -8418,12 +8398,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:AU2"/>
     <mergeCell ref="AK16:AU16"/>
     <mergeCell ref="AK17:AU17"/>
     <mergeCell ref="AK12:AU12"/>
     <mergeCell ref="AK14:AU14"/>
     <mergeCell ref="AK15:AU15"/>
-    <mergeCell ref="B2:AU2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8440,105 +8420,105 @@
   </sheetPr>
   <dimension ref="B1:AL65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AT38" sqref="AT38"/>
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AW29" sqref="AW29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
       <c r="AL3" s="4"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="24"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="11"/>
     </row>
     <row r="26" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U26" t="s">
@@ -8576,44 +8556,44 @@
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8647,44 +8627,44 @@
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8719,44 +8699,44 @@
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8790,44 +8770,44 @@
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8864,44 +8844,44 @@
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8935,44 +8915,44 @@
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9003,6 +8983,131 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetExpire xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPFriendlyName xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <IntlLangReview xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">848672</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <SubmitterId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AcquiredFrom xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Complete</EditorialStatus>
+    <Markets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
+    <OriginAsset xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetStart xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2012-07-27T02:51:00+00:00</AssetStart>
+    <FriendlyTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <MarketSpecific xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MarketSpecific>
+    <TPNamespace xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Value>455394</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <UserInfo>
+        <DisplayName>REDMOND\v-sa</DisplayName>
+        <AccountId>2467</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OpenTemplate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
+    <Manager xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <NumericId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ParentAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</OriginalSourceMarket>
+    <ApprovalStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">InProgress</ApprovalStatus>
+    <TPComponent xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <EditorialTags xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPExecutable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <SourceTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CSXUpdate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CSXUpdate>
+    <IntlLocPriority xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">TP</AssetType>
+    <MachineTranslated xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MachineTranslated>
+    <OutputCachingOn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</OutputCachingOn>
+    <TemplateStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Complete</TemplateStatus>
+    <IsSearchable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">true</IsSearchable>
+    <ContentItem xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ShowIn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UALocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UALocRecommendation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LegacyData xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</LocManualTestRequired>
+    <LocMarketGroupTiers2 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ClipArtFilename xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPApplication xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CSXHash xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</DirectSourceMarket>
+    <PrimaryImageGen xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Downloads xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">0</Downloads>
+    <ArtSampleDocs xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TrustLevel xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Providers xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Excel 2007 Default</TemplateTemplateType>
+    <TimesCloned xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPAppVersion xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <VoteCount xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UACurrentWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">TP103107647</AssetId>
+    <TPClientViewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <DSATActionTaken xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <APEditor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OOCacheId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <IsDeleted xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IsDeleted>
+    <PublishTargets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <BugNumber xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Milestone xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OriginalRelease xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">15</OriginalRelease>
+    <RecommendationsModifier xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x01010062057737089D604C8995D725789FFFFD0400C05BDBFCDB0BE84BA6AEC1D1A4F5E4CE" ma:contentTypeVersion="56" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5c786f17e9890b7d2875e0bb647f603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dddc4782ba87b44f6678511fd2b89e9" ns2:_="">
     <xsd:import namespace="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
@@ -10036,131 +10141,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetExpire xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPFriendlyName xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <IntlLangReview xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">848672</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <SubmitterId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AcquiredFrom xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Complete</EditorialStatus>
-    <Markets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
-    <OriginAsset xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetStart xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2012-07-27T02:51:00+00:00</AssetStart>
-    <FriendlyTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <MarketSpecific xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MarketSpecific>
-    <TPNamespace xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Value>455394</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <UserInfo>
-        <DisplayName>REDMOND\v-sa</DisplayName>
-        <AccountId>2467</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OpenTemplate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
-    <Manager xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <NumericId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ParentAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</OriginalSourceMarket>
-    <ApprovalStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">InProgress</ApprovalStatus>
-    <TPComponent xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <EditorialTags xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPExecutable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <SourceTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CSXUpdate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CSXUpdate>
-    <IntlLocPriority xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">TP</AssetType>
-    <MachineTranslated xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MachineTranslated>
-    <OutputCachingOn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</OutputCachingOn>
-    <TemplateStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Complete</TemplateStatus>
-    <IsSearchable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">true</IsSearchable>
-    <ContentItem xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ShowIn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UALocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UALocRecommendation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LegacyData xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</LocManualTestRequired>
-    <LocMarketGroupTiers2 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ClipArtFilename xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPApplication xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CSXHash xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</DirectSourceMarket>
-    <PrimaryImageGen xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Downloads xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">0</Downloads>
-    <ArtSampleDocs xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TrustLevel xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Providers xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Excel 2007 Default</TemplateTemplateType>
-    <TimesCloned xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPAppVersion xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <VoteCount xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UACurrentWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">TP103107647</AssetId>
-    <TPClientViewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <DSATActionTaken xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <APEditor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OOCacheId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <IsDeleted xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IsDeleted>
-    <PublishTargets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <BugNumber xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Milestone xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OriginalRelease xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">15</OriginalRelease>
-    <RecommendationsModifier xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA305B4-5B15-43B0-97AD-ED100099AAA1}">
   <ds:schemaRefs>
@@ -10170,6 +10150,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0F3B5-19EE-4272-80BE-E3F25FA5FD34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F89B36D-0441-4E4A-AAB0-33B035B10CD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10185,14 +10175,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0F3B5-19EE-4272-80BE-E3F25FA5FD34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Introdu-o-e-desenvolvimento-da-linguagem-de-programa-o-Java---grupo-1.xlsx
+++ b/Introdu-o-e-desenvolvimento-da-linguagem-de-programa-o-Java---grupo-1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA991367-3A76-41F8-91F2-F792B8EDC308}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="15040" windowHeight="10340" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="848" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa Mental" sheetId="8" r:id="rId1"/>
@@ -63,16 +62,16 @@
     <t>Inserir tabela de cores para indicar urgência</t>
   </si>
   <si>
-    <t>sim</t>
+    <t>Projeto Bloco I: API com vínculo para aplicativos parceiros (como Uber, Ifood, Instagram e etc) para denuncia de atos de abuso contra a mulher</t>
   </si>
   <si>
-    <t>Projeto Bloco I: API com vínculo para aplicativos parceiros (como Uber, Ifood, Instagram e etc) para denuncia de atos de abuso contra a mulher</t>
+    <t>SIM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,14 +166,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="6"/>
+      <sz val="14"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Cambria"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,24 +183,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +259,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,16 +285,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -394,7 +372,7 @@
         <xdr:cNvPr id="6" name="Pensar Positivo" descr="Forma de processo (retângulo)" title="Pense Positivo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -467,7 +445,7 @@
         <xdr:cNvPr id="7" name="Mais Água, Menos Café" descr="Forma de processo (retângulo)" title="Mais Água, Menos Café">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -543,7 +521,7 @@
         <xdr:cNvPr id="9" name="Mais Proteína, Frutas e Legumes" descr="Forma de processo (retângulo)" title="Mais Proteína, Frutas e Vegetais">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -616,7 +594,7 @@
         <xdr:cNvPr id="10" name="Atividades para Reduzir o Stress" descr="Forma de processo (retângulo)" title="Atividades para Diminuir o Stress">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -692,7 +670,7 @@
         <xdr:cNvPr id="11" name="Exercício para o Cérebro" descr="Forma de processo (retângulo)" title="Boa-forma do Cérebro">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +763,7 @@
         <xdr:cNvPr id="13" name="Exercitar-se, Exalar Mais, Caminhar/Correr" descr="Forma de processo (retângulo)" title="Pratique Exercícios, Expire Mais, Ande/Corra">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -858,7 +836,7 @@
         <xdr:cNvPr id="14" name="Descanso e Relaxamento" descr="Forma de processo (retângulo)" title="Descanso e Relaxamento">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -934,7 +912,7 @@
         <xdr:cNvPr id="15" name="Ler Mais, Criatividade" descr="Forma de processo (retângulo)" title="Mais Leitura, Criatividade">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,7 +1012,7 @@
         <xdr:cNvPr id="16" name="Comer Menos Gorduras" descr="Forma de processo (retângulo)" title="Coma Menos Gordura">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1133,7 +1111,7 @@
         <xdr:cNvPr id="18" name="Conector em Curva 17" descr="&quot;&quot;" title="Conector de Seta Curva">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1169,7 @@
         <xdr:cNvPr id="30" name="Conector em Curva 29" descr="&quot;&quot;" title="Conector de Seta Curva">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +1227,7 @@
         <xdr:cNvPr id="55" name="Conector em Curva 54" descr="&quot;&quot;" title="Conector de Seta Curva">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +1286,7 @@
         <xdr:cNvPr id="37" name="Conector de Seta Reta 36" descr="&quot;&quot;" title="Conector de Seta">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1342,7 @@
         <xdr:cNvPr id="40" name="Conector de Seta Reta 39" descr="&quot;&quot;" title="Conector de Seta">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1401,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique para ver o exemplo de fluxograma anterior."/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,7 +1476,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Clique para ver o próximo exemplo de fluxograma."/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1550,7 @@
         <xdr:cNvPr id="34" name="Mais Água, Menos Café" descr="Forma de processo (retângulo)" title="Mais Água, Menos Café">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB9346F-6F31-41DB-9F5D-E9FCD939EF0A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB9346F-6F31-41DB-9F5D-E9FCD939EF0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,23 +1615,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171411</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>82044</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>161975</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9513</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>88068</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>70137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Ligar ar condicionado" descr="Forma de processo (retângulo)" title="Ligue o ar condicionado">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,16 +1641,466 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943957" y="5103608"/>
-          <a:ext cx="2269552" cy="465077"/>
+          <a:off x="7160381" y="4011106"/>
+          <a:ext cx="1543088" cy="977612"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
           </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[verde] "Deseja falar com um atendente agora?"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (opções)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>204550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Ligar aquecedor" descr="Forma de processo (retângulo)" title="Ligue o aquecedor">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7060406" y="6501358"/>
+          <a:ext cx="1788082" cy="630485"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"Deseja</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> registrar o seu contato?"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>143852</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>257991</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9311665" y="4320156"/>
+          <a:ext cx="638014" cy="625517"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>157948</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>199895</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Abrir a porta do veículo" descr="Forma de processo (retângulo)" title="Abrir a porta do carro">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4087011" y="1890713"/>
+          <a:ext cx="2137447" cy="461478"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Pessoa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> clica no ícone </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>77438</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>64281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14158</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Sentar no banco do motorista" descr="Forma de processo (retângulo)" title="Sentar no banco do motorista">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4006501" y="2933687"/>
+          <a:ext cx="2294157" cy="578657"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[Título]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"Faça</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> seu pedido"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>23810</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Colocar cinto de segurança" descr="Forma de processo (retângulo)" title="Colocar o cinto de segurança">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3428998" y="4015788"/>
+          <a:ext cx="1666877" cy="961024"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:noFill/>
@@ -1708,10 +2136,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>[verde] "Você quer falar com um atendente agora?"</a:t>
+            <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -1719,10 +2147,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> (opções)</a:t>
+            <a:t>vermelho]</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -1730,100 +2158,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t> "Seu pedido está a caminho" (viatura)</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3157</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>37853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>45104</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>140474</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Ligar aquecedor" descr="Forma de processo (retângulo)" title="Ligue o aquecedor">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2028924" y="7030644"/>
-          <a:ext cx="2067714" cy="461026"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>"Deseja</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> registrar o seu contato?"</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -1838,23 +2175,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>96228</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>33905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>210367</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>40297</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83345</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+        <xdr:cNvPr id="55" name="Inserir e girar chave de ignição" descr="Forma de processo (retângulo)" title="Inserir e girar a chave de ignição">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,184 +2201,30 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4907424" y="5055469"/>
-          <a:ext cx="620581" cy="544000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184142</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>226089</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>106672</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Abrir a porta do veículo" descr="Forma de processo (retângulo)" title="Abrir a porta do carro">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1984367" y="1990725"/>
-          <a:ext cx="2099347" cy="468622"/>
+          <a:off x="1107281" y="4012408"/>
+          <a:ext cx="2119314" cy="964406"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Pessoa</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> clica no ícone </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184142</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180963</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>226089</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>106660</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Sentar no banco do motorista" descr="Forma de processo (retângulo)" title="Sentar no banco do motorista">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1984367" y="2714613"/>
-          <a:ext cx="2099347" cy="468622"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="139700" h="139700"/>
+        </a:sp3d>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2065,30 +2248,30 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>[Título]"Faça</a:t>
+            <a:t>[amarelo]</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
+            <a:rPr lang="en-US" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> seu pedido"</a:t>
+            <a:t> "Você será direcionado para um atendente" (envia para o centro de ajuda online)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -2101,23 +2284,150 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184142</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180951</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>226089</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>106649</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>176767</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>178922</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>64282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector em Curva 20" descr="&quot;&quot;" title="Conector de linha curva">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="2"/>
+          <a:endCxn id="53" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4863910" y="2641862"/>
+          <a:ext cx="581496" cy="2155"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83347</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74819</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Conector em Curva 62" descr="&quot;&quot;" title="Conector de linha curva">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4010717" y="3752158"/>
+          <a:ext cx="515350" cy="11910"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>198106</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>178592</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Colocar cinto de segurança" descr="Forma de processo (retângulo)" title="Colocar o cinto de segurança">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+        <xdr:cNvPr id="51" name="Não" descr="Rótulo de decisão (círculo)" title="Não">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,383 +2437,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1984367" y="3438501"/>
-          <a:ext cx="2099347" cy="468623"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[vermelho]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> "Seu pedido está a caminho" (viatura)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184142</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1736</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>226089</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>162278</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Inserir e girar chave de ignição" descr="Forma de processo (retângulo)" title="Inserir e girar a chave de ignição">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1962142" y="3903458"/>
-          <a:ext cx="2073947" cy="866098"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[amarelo]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> "Você será direcionado para um atendente" (envia para o centro de ajuda online)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>226089</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>53336</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>238789</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>53324</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Conector em Curva 20" descr="&quot;&quot;" title="Conector de linha curva">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="52" idx="3"/>
-          <a:endCxn id="53" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4083714" y="2225036"/>
-          <a:ext cx="12700" cy="723888"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 1800000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184142</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>53325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>196842</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>53314</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Conector em Curva 62" descr="&quot;&quot;" title="Conector de linha curva">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="1"/>
-          <a:endCxn id="53" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1984367" y="2948925"/>
-          <a:ext cx="12700" cy="723889"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 1800000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>226089</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>55605</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>238789</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>82007</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="Conector em Curva 71" descr="&quot;&quot;" title="Conector de linha curva">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="3"/>
-          <a:endCxn id="55" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4036089" y="3428161"/>
-          <a:ext cx="12700" cy="908346"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 1800000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>166356</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>71583</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>210368</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>87755</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Não" descr="Rótulo de decisão (círculo)" title="Não">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2698565" y="6168362"/>
-          <a:ext cx="550453" cy="553780"/>
+          <a:off x="7532356" y="5441072"/>
+          <a:ext cx="766299" cy="745574"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2516,7 +2451,9 @@
         </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
-            <a:schemeClr val="bg2"/>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2541,7 +2478,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1000">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2550,9 +2487,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>não</a:t>
+            <a:t>NÃO</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-BR" sz="800">
+          <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -2565,97 +2502,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>161975</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>39695</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>132546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>126702</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>96228</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>135380</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Conector Reto 14" descr="&quot;&quot;" title="Conector de linha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="87" idx="2"/>
-          <a:endCxn id="28" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4213509" y="5327469"/>
-          <a:ext cx="693915" cy="8678"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>188363</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190890</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>71583</xdr:rowOff>
+      <xdr:rowOff>154780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="71" name="Conector Reto 70" descr="&quot;&quot;" title="Conector de linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="51" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2973792" y="5559172"/>
-          <a:ext cx="2527" cy="609190"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7897820" y="5049827"/>
+          <a:ext cx="7930" cy="379422"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="sysDot"/>
         </a:ln>
       </xdr:spPr>
@@ -2678,23 +2562,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>188363</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>87755</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>189246</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>39031</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>57381</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="82" name="Conector Reto 81" descr="&quot;&quot;" title="Line connector">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,13 +2589,18 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2973792" y="6722142"/>
-          <a:ext cx="883" cy="309680"/>
+          <a:off x="7915506" y="6186646"/>
+          <a:ext cx="2150" cy="290354"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="sysDot"/>
         </a:ln>
       </xdr:spPr>
@@ -2734,116 +2623,46 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>162456</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>27532</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>225951</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>65941</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2694665" y="7737133"/>
-          <a:ext cx="569936" cy="576017"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>sim</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>206876</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>110250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>212621</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>53738</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>96322</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102961</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="93" name="Conector Reto 92" descr="&quot;&quot;" title="Conector de linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
+          <a:stCxn id="151" idx="0"/>
+          <a:endCxn id="29" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2992305" y="7461446"/>
-          <a:ext cx="5745" cy="301893"/>
+          <a:off x="7947422" y="7131843"/>
+          <a:ext cx="7025" cy="293462"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="sysDot"/>
         </a:ln>
       </xdr:spPr>
@@ -2883,7 +2702,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Voltar"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,7 +2775,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Próxima"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,43 +2831,48 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171410</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>82008</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184141</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133975</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>43671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>46002</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="62" name="Conector em Curva 61" descr="&quot;&quot;" title="Conector de linha curva">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="28" idx="1"/>
-          <a:endCxn id="55" idx="1"/>
+          <a:stCxn id="67" idx="6"/>
+          <a:endCxn id="61" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="1949410" y="4336508"/>
-          <a:ext cx="12731" cy="933911"/>
+        <a:xfrm flipV="1">
+          <a:off x="10001249" y="6830234"/>
+          <a:ext cx="476252" cy="2331"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -1795617"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="sysDot"/>
           <a:tailEnd type="none"/>
         </a:ln>
@@ -3072,23 +2896,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>229846</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>62332</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>220411</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>169004</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>51252</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>41817</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="57" name="Ligar ar condicionado" descr="Forma de processo (retângulo)" title="Ligue o ar condicionado">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4D3E21-4105-4039-A2C2-DEB508837FBA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4D3E21-4105-4039-A2C2-DEB508837FBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,16 +2922,671 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6053926" y="5083896"/>
-          <a:ext cx="2269552" cy="465077"/>
+          <a:off x="10528752" y="4324769"/>
+          <a:ext cx="2348003" cy="547204"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Direciona contato </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>para o centro de ajuda online).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>257991</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>26524</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114796</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Conector Reto 14" descr="&quot;&quot;" title="Conector de linha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BA7E20-EABF-423A-9D4E-1E5F561C0BDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="87" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9949679" y="4576431"/>
+          <a:ext cx="554345" cy="15115"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>154653</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Ligar ar condicionado" descr="Forma de processo (retângulo)" title="Ligue o ar condicionado">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66610285-76DA-447F-A186-878814BEE8F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477501" y="6350031"/>
+          <a:ext cx="2512090" cy="960406"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Visualização de orientações em tela para</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> incentivo no prosseguimento da denúncia).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>21619</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>16081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Ligar ar condicionado" descr="Forma de processo (retângulo)" title="Ligue o ar condicionado">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3006F504-FC00-4C55-8B33-807FE2D8E176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6831994" y="8457612"/>
+          <a:ext cx="2228662" cy="888793"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"Digite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> aqui seu contato" (envio de orientações por e-mail/telefone)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>203190</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Conector Reto 92" descr="&quot;&quot;" title="Conector de linha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD92357-53C3-4F94-998B-28D5BD15190B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8847128" y="6810376"/>
+          <a:ext cx="296872" cy="4597"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>10091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>81914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3BE4949-F8E3-4D2D-BAC3-0601BE1717FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9167812" y="6439466"/>
+          <a:ext cx="833437" cy="786198"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NÃO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>88200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>16081</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Conector Reto 92" descr="&quot;&quot;" title="Conector de linha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1804AFD2-0372-4D39-B88D-0A30D640DED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="64" idx="0"/>
+          <a:endCxn id="151" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7946325" y="8241823"/>
+          <a:ext cx="1097" cy="263414"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14158</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>73800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>70137</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Conector em Curva 61" descr="&quot;&quot;" title="Conector de linha curva">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="53" idx="3"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6300658" y="3223016"/>
+          <a:ext cx="1631267" cy="788090"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>77437</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Conector em Curva 61" descr="&quot;&quot;" title="Conector de linha curva">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="55" idx="0"/>
+          <a:endCxn id="53" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2692023" y="2697931"/>
+          <a:ext cx="789392" cy="1839563"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>80960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>72437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="Colocar cinto de segurança" descr="Forma de processo (retângulo)" title="Colocar o cinto de segurança">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5319710" y="4013406"/>
+          <a:ext cx="1666877" cy="961024"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:srgbClr val="7030A0"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:noFill/>
@@ -3143,135 +3622,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(direciona contato para alguém ligar para ela)</a:t>
+            <a:t>[</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>210367</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>111587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>240837</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>126702</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Conector Reto 14" descr="&quot;&quot;" title="Conector de linha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BA7E20-EABF-423A-9D4E-1E5F561C0BDD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="87" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5528005" y="5312354"/>
-          <a:ext cx="536912" cy="15115"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>164089</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>39720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>154653</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>146392</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Ligar ar condicionado" descr="Forma de processo (retângulo)" title="Ligue o ar condicionado">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66610285-76DA-447F-A186-878814BEE8F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6006089" y="6881845"/>
-          <a:ext cx="2276564" cy="455922"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -3279,10 +3633,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(visualização de orientações em tela</a:t>
+            <a:t>roxo]</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
+            <a:rPr lang="en-US" sz="1400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -3290,9 +3644,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>)</a:t>
+            <a:t> "Seu pedido está a caminho" (viatura)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -3307,23 +3661,147 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>125599</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>39893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>116163</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>146565</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>72437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Conector em Curva 62" descr="&quot;&quot;" title="Conector de linha curva">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="126" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5874044" y="3734301"/>
+          <a:ext cx="548687" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>53205</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>148134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>143852</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>156165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="Conector Reto 14" descr="&quot;&quot;" title="Conector de linha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BA7E20-EABF-423A-9D4E-1E5F561C0BDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="87" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8697143" y="4624884"/>
+          <a:ext cx="614522" cy="8031"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Ligar ar condicionado" descr="Forma de processo (retângulo)" title="Ligue o ar condicionado">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3006F504-FC00-4C55-8B33-807FE2D8E176}"/>
+        <xdr:cNvPr id="151" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3333,19 +3811,19 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1898145" y="8645506"/>
-          <a:ext cx="2269552" cy="465077"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+          <a:off x="7560468" y="7425305"/>
+          <a:ext cx="773907" cy="816518"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3368,285 +3846,75 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>"Digite</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> aqui seu contato" (envio de orientações por e-mail/telefone)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1000" b="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>42852</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>93497</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>229847</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>93497</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Conector Reto 92" descr="&quot;&quot;" title="Conector de linha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD92357-53C3-4F94-998B-28D5BD15190B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4094386" y="7265491"/>
-          <a:ext cx="440216" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>240838</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>168244</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>51112</xdr:colOff>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>27451</xdr:rowOff>
-    </xdr:to>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="302840"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3BE4949-F8E3-4D2D-BAC3-0601BE1717FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="166" name="CaixaDeTexto 165"/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4545593" y="6981833"/>
-          <a:ext cx="569936" cy="576017"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
+          <a:off x="7679531" y="7715250"/>
+          <a:ext cx="619125" cy="302840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1">
+            <a:rPr lang="pt-BR" sz="1400">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>não</a:t>
+            <a:t>SIM</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>47217</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>70590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>164089</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>93056</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="Conector Reto 92" descr="&quot;&quot;" title="Conector de linha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2951A280-827C-4559-B487-9F310E676809}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="61" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5127217" y="7087340"/>
-          <a:ext cx="878872" cy="22466"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>183970</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>71760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>189715</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>15249</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Conector Reto 92" descr="&quot;&quot;" title="Conector de linha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1804AFD2-0372-4D39-B88D-0A30D640DED3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2969399" y="8318969"/>
-          <a:ext cx="5745" cy="301893"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3670,7 +3938,7 @@
         <xdr:cNvPr id="7" name="Calçar sapatos" descr="Forma de processo (retângulo)" title="Colocar os sapatos">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3747,7 +4015,7 @@
         <xdr:cNvPr id="8" name="Tirar a folga dos laços" descr="Forma de processo (retângulo)" title="Começando de baixo, remover a folga dos cadarços">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3883,7 +4151,7 @@
         <xdr:cNvPr id="9" name="Nó duplo?" descr="Forma de decisão (losango)" title="Nó duplo?">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3961,7 +4229,7 @@
         <xdr:cNvPr id="11" name="Dar nó simples" descr="Forma de processo (retângulo)" title="Dar um só simples">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4043,7 +4311,7 @@
         <xdr:cNvPr id="12" name="apertar nó" descr="Forma de processo (retângulo)" title="Apertar o nó">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4412,7 @@
         <xdr:cNvPr id="3" name="Conector Angulado 2" descr="&quot;&quot;" title="Conector de Linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4203,7 +4471,7 @@
         <xdr:cNvPr id="20" name="Conector Angulado 2" descr="&quot;&quot;" title="Conector de Linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4262,7 +4530,7 @@
         <xdr:cNvPr id="23" name="Conector Angulado 2" descr="&quot;&quot;" title="Conector de Linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4321,7 +4589,7 @@
         <xdr:cNvPr id="26" name="Conector Angulado 2" descr="&quot;&quot;" title="Conector de Linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4383,7 +4651,7 @@
         <xdr:cNvPr id="29" name="Conector Angulado 2" descr="&quot;&quot;" title="Conector de Linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4442,7 +4710,7 @@
         <xdr:cNvPr id="33" name="Conector Angulado 32" descr="&quot;&quot;" title="Conector de Linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4501,7 +4769,7 @@
         <xdr:cNvPr id="36" name="Dar nó duplo" descr="Forma de processo (retângulo)" title="Dar um nó duplo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4579,7 +4847,7 @@
         <xdr:cNvPr id="30" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4654,7 +4922,7 @@
         <xdr:cNvPr id="37" name="Não" descr="Rótulo de decisão (círculo)" title="Não">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4735,7 +5003,7 @@
         <xdr:cNvPr id="40" name="Conector Angulado 2" descr="&quot;&quot;" title="Conector de Linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4797,7 +5065,7 @@
         <xdr:cNvPr id="67" name="Conector Angulado 66" descr="&quot;&quot;" title="Conector de Linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000043000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4857,7 +5125,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique para ver o Conteúdo"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4930,7 +5198,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Voltar"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5003,7 +5271,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tooltip="Próxima"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5075,7 +5343,7 @@
         <xdr:cNvPr id="27" name="Borda do Título" descr="&quot;&quot;" title="Borda do Título">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5132,7 +5400,7 @@
         <xdr:cNvPr id="28" name="Afrouxar laços" descr="Forma de processo (retângulo)" title="Afrouxar os cadarços">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5209,7 +5477,7 @@
         <xdr:cNvPr id="31" name="Conector Angulado 2" descr="Controle de fluxogramas" title="Controle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5273,7 +5541,7 @@
         <xdr:cNvPr id="18" name="Ir para a sapataria" descr="Forma de processo (círculo)" title="Ir para a loja de sapatos">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5348,7 +5616,7 @@
         <xdr:cNvPr id="20" name="Selecionar um par de sapatos" descr="Forma de processo (círculo)" title="Selecionar um par de sapados">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5426,7 +5694,7 @@
         <xdr:cNvPr id="21" name="Experimentar sapatos" descr="Forma de processo (círculo)" title="Experimentar os sapatos">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5504,7 +5772,7 @@
         <xdr:cNvPr id="24" name="Verificar tamanho" descr="Forma de processo (círculo)" title="Conferir o tamanho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5582,7 +5850,7 @@
         <xdr:cNvPr id="25" name="Andar e observar" descr="Forma de processo (círculo)" title="Andar e observar no espelho comprido">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5947,7 @@
         <xdr:cNvPr id="27" name="Eles cabem e são fantásticos" descr="Forma de processo (círculo)" title="Eles serviram e caíram bem?">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +6060,7 @@
         <xdr:cNvPr id="40" name="Continuar comprando" descr="Forma de processo (círculo)" title="Continuar comprando">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5876,7 +6144,7 @@
         <xdr:cNvPr id="45" name="Não" descr="Rótulo de decisão (círculo)" title="Não">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5954,7 +6222,7 @@
         <xdr:cNvPr id="47" name="Comprar mais sapatos" descr="Forma de processo (círculo)" title="Comprar mais sapatos">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6057,7 +6325,7 @@
         <xdr:cNvPr id="46" name="Sim" descr="Rótulo de decisão (círculo)" title="Sim">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6141,7 +6409,7 @@
         <xdr:cNvPr id="4" name="Conector Reto 3" descr="&quot;&quot;" title="Conector de linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6199,7 +6467,7 @@
         <xdr:cNvPr id="28" name="Conector Reto 27" descr="&quot;&quot;" title="Conector de linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6257,7 +6525,7 @@
         <xdr:cNvPr id="30" name="Conector Reto 29" descr="&quot;&quot;" title="Conector de linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6315,7 +6583,7 @@
         <xdr:cNvPr id="33" name="Conector Reto 32" descr="&quot;&quot;" title="Conector de linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6373,7 +6641,7 @@
         <xdr:cNvPr id="36" name="Conector Reto 35" descr="&quot;&quot;" title="Conector de linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6431,7 +6699,7 @@
         <xdr:cNvPr id="39" name="Conector Reto 38" descr="&quot;&quot;" title="Conector de linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6489,7 +6757,7 @@
         <xdr:cNvPr id="42" name="Conector Reto 41" descr="&quot;&quot;" title="Conector de linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6547,7 +6815,7 @@
         <xdr:cNvPr id="49" name="Conector Reto 48" descr="&quot;&quot;" title="Conector de linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6605,7 +6873,7 @@
         <xdr:cNvPr id="50" name="Conector Reto 49" descr="&quot;&quot;" title="Conector de linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6663,7 +6931,7 @@
         <xdr:cNvPr id="44" name="Conector Angulado 43" descr="&quot;&quot;" title="Conector de linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6722,7 +6990,7 @@
         <xdr:cNvPr id="53" name="Conector Angulado 52" descr="&quot;" title="Conector de linha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6784,7 +7052,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique para ver o Conteúdo"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6857,7 +7125,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Clique para ver o exemplo de fluxograma anterior."/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6930,7 +7198,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tooltip="Clique para ver o próximo exemplo de fluxograma."/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7002,7 +7270,7 @@
         <xdr:cNvPr id="38" name="Borda do Título" descr="&quot;&quot;" title="Borda do Título">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7064,7 +7332,7 @@
         <xdr:cNvPr id="35" name="Coletar Materiais" descr="Forma de processo (quadrado)" title="Recolher Materiais">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7141,7 +7409,7 @@
         <xdr:cNvPr id="36" name="Verificar Validade dos Dados" descr="Forma de processo (quadrado)" title="Verificar Validade dos Dados">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7219,7 +7487,7 @@
         <xdr:cNvPr id="37" name="Inserir Dados" descr="Forma de processo (quadrado)" title="Inserir Dados">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7299,7 +7567,7 @@
         <xdr:cNvPr id="38" name="Verificar Validade dos Dados" descr="Forma de processo (quadrado)" title="Verificar Validade dos Dados">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7377,7 +7645,7 @@
         <xdr:cNvPr id="39" name="Enviar para Relatório" descr="Forma de processo (quadrado)" title="Enviar para Relatório">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7457,7 +7725,7 @@
         <xdr:cNvPr id="4" name="Conector em Curva 3" descr="&quot;&quot;" title="Conector Curvo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7520,7 +7788,7 @@
         <xdr:cNvPr id="40" name="Conector em Curva 39" descr="&quot;&quot;" title="Conector Curvo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7583,7 +7851,7 @@
         <xdr:cNvPr id="41" name="Conector em Curva 40" descr="&quot;&quot;" title="Conector Curvo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7646,7 +7914,7 @@
         <xdr:cNvPr id="44" name="Conector em Curva 43" descr="&quot;&quot;" title="Conector Curvo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7710,7 +7978,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique para ver o Conteúdo"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7783,7 +8051,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Clique para ver o exemplo de fluxograma anterior."/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7856,7 +8124,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tooltip="Clique para ver o próximo exemplo de fluxograma."/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7928,7 +8196,7 @@
         <xdr:cNvPr id="21" name="Borda do Título" descr="&quot;&quot;" title="Borda do Título">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8196,76 +8464,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <tabColor theme="6"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AW28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="37" max="37" width="5" customWidth="1"/>
     <col min="40" max="40" width="6.75" customWidth="1"/>
-    <col min="47" max="47" width="4.08203125" customWidth="1"/>
+    <col min="47" max="47" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:49" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:49" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:49" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:49" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
     </row>
-    <row r="3" spans="2:49" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:49" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -8306,23 +8574,23 @@
       <c r="AK3" s="8"/>
       <c r="AL3" s="4"/>
     </row>
-    <row r="4" spans="2:49" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="AK12" s="17" t="s">
+    <row r="4" spans="2:49" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="AK12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="18"/>
-      <c r="AS12" s="18"/>
-      <c r="AT12" s="18"/>
-      <c r="AU12" s="19"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="17"/>
+      <c r="AU12" s="18"/>
     </row>
-    <row r="13" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:49" x14ac:dyDescent="0.2">
       <c r="AK13" s="5" t="s">
         <v>12</v>
       </c>
@@ -8339,59 +8607,59 @@
       <c r="AV13" s="7"/>
       <c r="AW13" s="7"/>
     </row>
-    <row r="14" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="16"/>
+    <row r="14" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="15"/>
     </row>
-    <row r="15" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
-      <c r="AN15" s="15"/>
-      <c r="AO15" s="15"/>
-      <c r="AP15" s="15"/>
-      <c r="AQ15" s="15"/>
-      <c r="AR15" s="15"/>
-      <c r="AS15" s="15"/>
-      <c r="AT15" s="15"/>
-      <c r="AU15" s="16"/>
+    <row r="15" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="15"/>
     </row>
-    <row r="16" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="15"/>
-      <c r="AN16" s="15"/>
-      <c r="AO16" s="15"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="15"/>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="15"/>
-      <c r="AU16" s="16"/>
+    <row r="16" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="15"/>
     </row>
-    <row r="17" spans="37:47" x14ac:dyDescent="0.3">
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="15"/>
-      <c r="AN17" s="15"/>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="15"/>
-      <c r="AQ17" s="15"/>
-      <c r="AR17" s="15"/>
-      <c r="AS17" s="15"/>
-      <c r="AT17" s="15"/>
-      <c r="AU17" s="16"/>
+    <row r="17" spans="37:47" x14ac:dyDescent="0.2">
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="15"/>
     </row>
-    <row r="28" spans="37:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="37:47" x14ac:dyDescent="0.2">
       <c r="AK28" t="s">
         <v>8</v>
       </c>
@@ -8413,119 +8681,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor theme="2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AL65"/>
+  <dimension ref="B1:AO65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AW29" sqref="AW29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AM41" sqref="AM41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="4"/>
+    </row>
+    <row r="4" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="13:37" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="4"/>
     </row>
-    <row r="4" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="R11" s="12" t="s">
+    <row r="25" spans="13:37" x14ac:dyDescent="0.2">
+      <c r="M25" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="R12" s="9"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="11"/>
+    <row r="29" spans="13:37" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="AH29" s="11"/>
     </row>
-    <row r="26" spans="21:21" x14ac:dyDescent="0.3">
-      <c r="U26" t="s">
-        <v>14</v>
-      </c>
+    <row r="39" spans="35:41" ht="18" x14ac:dyDescent="0.2">
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
     </row>
-    <row r="65" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="35:41" ht="18" x14ac:dyDescent="0.2">
+      <c r="AO40" s="10"/>
+    </row>
+    <row r="65" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF65" t="s">
         <v>6</v>
       </c>
@@ -8543,21 +8817,164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9">
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AL42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="2"/>
+    </row>
+    <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+    </row>
+    <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="4"/>
+    </row>
+    <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="34:34" x14ac:dyDescent="0.2">
+      <c r="AH42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:AK2"/>
+    <mergeCell ref="B4:AK4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4">
+    <tabColor theme="4"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AL66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -8596,7 +9013,7 @@
       <c r="AK2" s="23"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -8626,50 +9043,50 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
     </row>
-    <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="22" t="s">
-        <v>9</v>
+    <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
+        <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
       <c r="AL4" s="4"/>
     </row>
-    <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="34:34" x14ac:dyDescent="0.3">
-      <c r="AH42" t="s">
+    <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="32:32" x14ac:dyDescent="0.2">
+      <c r="AF66" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8680,27 +9097,29 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4">
-    <tabColor theme="4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8">
+    <tabColor theme="8"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AL66"/>
+  <dimension ref="B1:AL53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="E33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM37" sqref="AM37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -8739,7 +9158,7 @@
       <c r="AK2" s="24"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -8769,194 +9188,49 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
     </row>
-    <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="22" t="s">
-        <v>7</v>
+    <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
+        <v>4</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
       <c r="AL4" s="4"/>
     </row>
-    <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="32:32" x14ac:dyDescent="0.3">
-      <c r="AF66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:AK2"/>
-    <mergeCell ref="B4:AK4"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet8">
-    <tabColor theme="8"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:AL53"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM37" sqref="AM37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="2"/>
-    </row>
-    <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="4"/>
-    </row>
-    <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="24:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X53" t="s">
         <v>8</v>
       </c>
